--- a/Jogos_do_Dia/2023-08-29_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-08-29_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -163,12 +163,12 @@
     <t>Asan Mugunghwa</t>
   </si>
   <si>
+    <t>Ansan Greeners</t>
+  </si>
+  <si>
     <t>Busan I'Park</t>
   </si>
   <si>
-    <t>Ansan Greeners</t>
-  </si>
-  <si>
     <t>Helsingborg</t>
   </si>
   <si>
@@ -184,19 +184,25 @@
     <t>Reggiana</t>
   </si>
   <si>
+    <t>Penybont</t>
+  </si>
+  <si>
+    <t>Connah's Quay</t>
+  </si>
+  <si>
+    <t>Barry Town United</t>
+  </si>
+  <si>
     <t>Caernarfon Town</t>
   </si>
   <si>
-    <t>Barry Town United</t>
-  </si>
-  <si>
-    <t>Connah's Quay</t>
-  </si>
-  <si>
     <t>Colwyn Bay</t>
   </si>
   <si>
-    <t>Penybont</t>
+    <t>Galatasaray</t>
+  </si>
+  <si>
+    <t>Aberystwyth Town</t>
   </si>
   <si>
     <t>Young Boys</t>
@@ -205,24 +211,18 @@
     <t>Panathinaikos</t>
   </si>
   <si>
-    <t>Galatasaray</t>
-  </si>
-  <si>
-    <t>Aberystwyth Town</t>
-  </si>
-  <si>
     <t>Internacional</t>
   </si>
   <si>
     <t>Gyeongnam</t>
   </si>
   <si>
+    <t>Bucheon 1995</t>
+  </si>
+  <si>
     <t>Sangju Sangmu</t>
   </si>
   <si>
-    <t>Bucheon 1995</t>
-  </si>
-  <si>
     <t>Landskrona</t>
   </si>
   <si>
@@ -238,31 +238,31 @@
     <t>Palermo</t>
   </si>
   <si>
+    <t>Cardiff MU</t>
+  </si>
+  <si>
+    <t>Newtown</t>
+  </si>
+  <si>
+    <t>Haverfordwest County</t>
+  </si>
+  <si>
     <t>Bala Town</t>
   </si>
   <si>
-    <t>Haverfordwest County</t>
-  </si>
-  <si>
-    <t>Newtown</t>
-  </si>
-  <si>
     <t>The New Saints</t>
   </si>
   <si>
-    <t>Cardiff MU</t>
+    <t>Molde</t>
+  </si>
+  <si>
+    <t>Pontypridd Town AFC</t>
   </si>
   <si>
     <t>Maccabi Haifa</t>
   </si>
   <si>
     <t>Sporting Braga</t>
-  </si>
-  <si>
-    <t>Molde</t>
-  </si>
-  <si>
-    <t>Pontypridd Town AFC</t>
   </si>
   <si>
     <t>Bolívar</t>
@@ -760,13 +760,13 @@
         <v>66</v>
       </c>
       <c r="G2">
-        <v>2.58</v>
+        <v>2.38</v>
       </c>
       <c r="H2">
-        <v>3.03</v>
+        <v>3.3</v>
       </c>
       <c r="I2">
-        <v>2.26</v>
+        <v>2.53</v>
       </c>
       <c r="J2">
         <v>1.03</v>
@@ -781,10 +781,10 @@
         <v>3.04</v>
       </c>
       <c r="N2">
-        <v>1.87</v>
+        <v>2.01</v>
       </c>
       <c r="O2">
-        <v>1.68</v>
+        <v>1.79</v>
       </c>
       <c r="P2">
         <v>1.42</v>
@@ -867,91 +867,91 @@
         <v>67</v>
       </c>
       <c r="G3">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="H3">
-        <v>3.23</v>
+        <v>3.25</v>
       </c>
       <c r="I3">
-        <v>1.94</v>
+        <v>2.08</v>
       </c>
       <c r="J3">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="K3">
-        <v>9.699999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="L3">
-        <v>1.24</v>
+        <v>1.3</v>
       </c>
       <c r="M3">
-        <v>3.48</v>
+        <v>3.08</v>
       </c>
       <c r="N3">
-        <v>1.7</v>
+        <v>2.01</v>
       </c>
       <c r="O3">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="P3">
-        <v>1.36</v>
+        <v>1.42</v>
       </c>
       <c r="Q3">
-        <v>2.99</v>
+        <v>2.73</v>
       </c>
       <c r="R3">
-        <v>1.66</v>
+        <v>1.76</v>
       </c>
       <c r="S3">
-        <v>2.04</v>
+        <v>1.91</v>
       </c>
       <c r="T3">
-        <v>1.71</v>
+        <v>1.59</v>
       </c>
       <c r="U3">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="V3">
-        <v>1.3</v>
+        <v>1.35</v>
       </c>
       <c r="W3">
-        <v>1.83</v>
+        <v>0.85</v>
       </c>
       <c r="X3">
-        <v>1.69</v>
+        <v>1.38</v>
       </c>
       <c r="Y3">
-        <v>1.53</v>
+        <v>1.43</v>
       </c>
       <c r="Z3">
-        <v>1.51</v>
+        <v>1.31</v>
       </c>
       <c r="AA3">
-        <v>3.04</v>
+        <v>2.74</v>
       </c>
       <c r="AB3">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AC3">
         <v>7</v>
       </c>
       <c r="AD3">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="AE3">
-        <v>1.23</v>
+        <v>1.4</v>
       </c>
       <c r="AF3">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AG3">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="AH3">
-        <v>2.25</v>
+        <v>2.63</v>
       </c>
       <c r="AI3">
-        <v>3.08</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="4" spans="1:35">
@@ -974,91 +974,91 @@
         <v>68</v>
       </c>
       <c r="G4">
-        <v>2.66</v>
+        <v>2.62</v>
       </c>
       <c r="H4">
-        <v>2.97</v>
+        <v>3.35</v>
       </c>
       <c r="I4">
-        <v>2.24</v>
+        <v>2.27</v>
       </c>
       <c r="J4">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="K4">
-        <v>8.4</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="L4">
+        <v>1.24</v>
+      </c>
+      <c r="M4">
+        <v>3.48</v>
+      </c>
+      <c r="N4">
+        <v>1.92</v>
+      </c>
+      <c r="O4">
+        <v>1.88</v>
+      </c>
+      <c r="P4">
+        <v>1.36</v>
+      </c>
+      <c r="Q4">
+        <v>2.99</v>
+      </c>
+      <c r="R4">
+        <v>1.66</v>
+      </c>
+      <c r="S4">
+        <v>2.04</v>
+      </c>
+      <c r="T4">
+        <v>1.71</v>
+      </c>
+      <c r="U4">
+        <v>1.27</v>
+      </c>
+      <c r="V4">
         <v>1.3</v>
       </c>
-      <c r="M4">
-        <v>3.08</v>
-      </c>
-      <c r="N4">
-        <v>1.87</v>
-      </c>
-      <c r="O4">
-        <v>1.68</v>
-      </c>
-      <c r="P4">
-        <v>1.42</v>
-      </c>
-      <c r="Q4">
-        <v>2.73</v>
-      </c>
-      <c r="R4">
-        <v>1.76</v>
-      </c>
-      <c r="S4">
-        <v>1.91</v>
-      </c>
-      <c r="T4">
-        <v>1.59</v>
-      </c>
-      <c r="U4">
-        <v>1.3</v>
-      </c>
-      <c r="V4">
-        <v>1.35</v>
-      </c>
       <c r="W4">
-        <v>0.85</v>
+        <v>1.83</v>
       </c>
       <c r="X4">
-        <v>1.38</v>
+        <v>1.69</v>
       </c>
       <c r="Y4">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="Z4">
-        <v>1.31</v>
+        <v>1.51</v>
       </c>
       <c r="AA4">
-        <v>2.74</v>
+        <v>3.04</v>
       </c>
       <c r="AB4">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="AC4">
         <v>7</v>
       </c>
       <c r="AD4">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="AE4">
-        <v>1.4</v>
+        <v>1.23</v>
       </c>
       <c r="AF4">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AG4">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="AH4">
-        <v>2.63</v>
+        <v>2.25</v>
       </c>
       <c r="AI4">
-        <v>0</v>
+        <v>3.08</v>
       </c>
     </row>
     <row r="5" spans="1:35">
@@ -1081,13 +1081,13 @@
         <v>69</v>
       </c>
       <c r="G5">
-        <v>1.92</v>
+        <v>2.19</v>
       </c>
       <c r="H5">
-        <v>3.23</v>
+        <v>3.5</v>
       </c>
       <c r="I5">
-        <v>3.34</v>
+        <v>2.98</v>
       </c>
       <c r="J5">
         <v>1.04</v>
@@ -1102,10 +1102,10 @@
         <v>3.4</v>
       </c>
       <c r="N5">
-        <v>1.83</v>
+        <v>1.96</v>
       </c>
       <c r="O5">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="P5">
         <v>1.36</v>
@@ -1153,7 +1153,7 @@
         <v>2.1</v>
       </c>
       <c r="AE5">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="AF5">
         <v>1.21</v>
@@ -1188,13 +1188,13 @@
         <v>70</v>
       </c>
       <c r="G6">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="H6">
-        <v>3.16</v>
+        <v>3.25</v>
       </c>
       <c r="I6">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="J6">
         <v>1.08</v>
@@ -1295,13 +1295,13 @@
         <v>71</v>
       </c>
       <c r="G7">
-        <v>2.57</v>
+        <v>2.42</v>
       </c>
       <c r="H7">
-        <v>2.98</v>
+        <v>3.3</v>
       </c>
       <c r="I7">
-        <v>2.47</v>
+        <v>2.74</v>
       </c>
       <c r="J7">
         <v>1.1</v>
@@ -1358,28 +1358,28 @@
         <v>2.08</v>
       </c>
       <c r="AB7">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="AC7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AD7">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="AE7">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="AF7">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="AG7">
-        <v>0</v>
+        <v>1.69</v>
       </c>
       <c r="AH7">
-        <v>0</v>
+        <v>2.07</v>
       </c>
       <c r="AI7">
-        <v>0</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="8" spans="1:35">
@@ -1402,13 +1402,13 @@
         <v>72</v>
       </c>
       <c r="G8">
-        <v>2.54</v>
+        <v>2.38</v>
       </c>
       <c r="H8">
-        <v>3.06</v>
+        <v>3.3</v>
       </c>
       <c r="I8">
-        <v>2.44</v>
+        <v>2.82</v>
       </c>
       <c r="J8">
         <v>1.1</v>
@@ -1465,28 +1465,28 @@
         <v>0</v>
       </c>
       <c r="AB8">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="AC8">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AD8">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="AE8">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="AF8">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="AG8">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="AH8">
-        <v>0</v>
+        <v>2.09</v>
       </c>
       <c r="AI8">
-        <v>0</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="9" spans="1:35">
@@ -1509,13 +1509,13 @@
         <v>73</v>
       </c>
       <c r="G9">
-        <v>3.08</v>
+        <v>3.1</v>
       </c>
       <c r="H9">
-        <v>3.03</v>
+        <v>3.25</v>
       </c>
       <c r="I9">
-        <v>2.11</v>
+        <v>2.23</v>
       </c>
       <c r="J9">
         <v>1.1</v>
@@ -1616,67 +1616,67 @@
         <v>74</v>
       </c>
       <c r="G10">
-        <v>3.16</v>
+        <v>1.8</v>
       </c>
       <c r="H10">
-        <v>3.39</v>
+        <v>3.4</v>
       </c>
       <c r="I10">
-        <v>1.79</v>
+        <v>3.9</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>10.75</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>3.17</v>
       </c>
       <c r="N10">
-        <v>1.56</v>
+        <v>2</v>
       </c>
       <c r="O10">
-        <v>2.28</v>
+        <v>1.75</v>
       </c>
       <c r="P10">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="Q10">
-        <v>3.4</v>
+        <v>2.75</v>
       </c>
       <c r="R10">
-        <v>1.57</v>
+        <v>1.83</v>
       </c>
       <c r="S10">
-        <v>2.25</v>
+        <v>1.83</v>
       </c>
       <c r="T10">
-        <v>1.87</v>
+        <v>1.24</v>
       </c>
       <c r="U10">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="V10">
-        <v>1.26</v>
+        <v>1.86</v>
       </c>
       <c r="W10">
         <v>3</v>
       </c>
       <c r="X10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Y10">
-        <v>1.38</v>
+        <v>1.12</v>
       </c>
       <c r="Z10">
-        <v>1.6</v>
+        <v>1.07</v>
       </c>
       <c r="AA10">
-        <v>2.98</v>
+        <v>2.19</v>
       </c>
       <c r="AB10">
         <v>0</v>
@@ -1723,37 +1723,37 @@
         <v>75</v>
       </c>
       <c r="G11">
-        <v>2.46</v>
+        <v>1.6</v>
       </c>
       <c r="H11">
-        <v>3.45</v>
+        <v>3.9</v>
       </c>
       <c r="I11">
-        <v>2.64</v>
+        <v>4.6</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N11">
-        <v>1.85</v>
+        <v>1.68</v>
       </c>
       <c r="O11">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="P11">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="Q11">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="R11">
         <v>1.73</v>
@@ -1762,28 +1762,28 @@
         <v>2</v>
       </c>
       <c r="T11">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="U11">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="V11">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="W11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X11">
         <v>0</v>
       </c>
       <c r="Y11">
-        <v>2.03</v>
+        <v>1.74</v>
       </c>
       <c r="Z11">
-        <v>0.91</v>
+        <v>1.67</v>
       </c>
       <c r="AA11">
-        <v>2.94</v>
+        <v>3.41</v>
       </c>
       <c r="AB11">
         <v>0</v>
@@ -1830,37 +1830,37 @@
         <v>76</v>
       </c>
       <c r="G12">
-        <v>1.66</v>
+        <v>2.38</v>
       </c>
       <c r="H12">
-        <v>3.96</v>
+        <v>3.3</v>
       </c>
       <c r="I12">
-        <v>4.65</v>
+        <v>2.63</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="L12">
-        <v>1.21</v>
+        <v>1.25</v>
       </c>
       <c r="M12">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="N12">
-        <v>1.66</v>
+        <v>1.85</v>
       </c>
       <c r="O12">
-        <v>2.09</v>
+        <v>1.9</v>
       </c>
       <c r="P12">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="Q12">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="R12">
         <v>1.73</v>
@@ -1869,28 +1869,28 @@
         <v>2</v>
       </c>
       <c r="T12">
-        <v>1.15</v>
+        <v>1.4</v>
       </c>
       <c r="U12">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="V12">
-        <v>2.2</v>
+        <v>1.52</v>
       </c>
       <c r="W12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="X12">
         <v>0</v>
       </c>
       <c r="Y12">
-        <v>1.74</v>
+        <v>2.03</v>
       </c>
       <c r="Z12">
-        <v>1.67</v>
+        <v>0.91</v>
       </c>
       <c r="AA12">
-        <v>3.41</v>
+        <v>2.94</v>
       </c>
       <c r="AB12">
         <v>0</v>
@@ -1937,67 +1937,67 @@
         <v>77</v>
       </c>
       <c r="G13">
-        <v>17</v>
+        <v>3.3</v>
       </c>
       <c r="H13">
-        <v>11</v>
+        <v>3.6</v>
       </c>
       <c r="I13">
-        <v>1.08</v>
+        <v>1.9</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="N13">
-        <v>1.25</v>
+        <v>1.57</v>
       </c>
       <c r="O13">
-        <v>4</v>
+        <v>2.3</v>
       </c>
       <c r="P13">
-        <v>1.17</v>
+        <v>1.3</v>
       </c>
       <c r="Q13">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="R13">
-        <v>2.2</v>
+        <v>1.57</v>
       </c>
       <c r="S13">
-        <v>1.62</v>
+        <v>2.25</v>
       </c>
       <c r="T13">
-        <v>0</v>
+        <v>1.87</v>
       </c>
       <c r="U13">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="V13">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="W13">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Y13">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="Z13">
-        <v>2.57</v>
+        <v>1.6</v>
       </c>
       <c r="AA13">
-        <v>3.97</v>
+        <v>2.98</v>
       </c>
       <c r="AB13">
         <v>0</v>
@@ -2044,67 +2044,67 @@
         <v>78</v>
       </c>
       <c r="G14">
-        <v>1.76</v>
+        <v>17</v>
       </c>
       <c r="H14">
-        <v>3.13</v>
+        <v>11</v>
       </c>
       <c r="I14">
-        <v>3.54</v>
+        <v>1.08</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="M14">
-        <v>3.17</v>
+        <v>8</v>
       </c>
       <c r="N14">
-        <v>1.7</v>
+        <v>1.25</v>
       </c>
       <c r="O14">
-        <v>2.03</v>
+        <v>4</v>
       </c>
       <c r="P14">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="Q14">
-        <v>2.75</v>
+        <v>4.5</v>
       </c>
       <c r="R14">
-        <v>1.83</v>
+        <v>2.2</v>
       </c>
       <c r="S14">
-        <v>1.83</v>
+        <v>1.62</v>
       </c>
       <c r="T14">
-        <v>1.24</v>
+        <v>7</v>
       </c>
       <c r="U14">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="V14">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="W14">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="X14">
         <v>3</v>
       </c>
       <c r="Y14">
-        <v>1.12</v>
+        <v>1.4</v>
       </c>
       <c r="Z14">
-        <v>1.07</v>
+        <v>2.57</v>
       </c>
       <c r="AA14">
-        <v>2.19</v>
+        <v>3.97</v>
       </c>
       <c r="AB14">
         <v>0</v>
@@ -2125,7 +2125,7 @@
         <v>0</v>
       </c>
       <c r="AH14">
-        <v>0</v>
+        <v>1.88</v>
       </c>
       <c r="AI14">
         <v>0</v>
@@ -2151,37 +2151,37 @@
         <v>79</v>
       </c>
       <c r="G15">
-        <v>1.76</v>
+        <v>1.65</v>
       </c>
       <c r="H15">
-        <v>3.95</v>
+        <v>4.1</v>
       </c>
       <c r="I15">
-        <v>4.31</v>
+        <v>4.9</v>
       </c>
       <c r="J15">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="K15">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="L15">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="M15">
-        <v>3.94</v>
+        <v>4.2</v>
       </c>
       <c r="N15">
-        <v>1.68</v>
+        <v>1.66</v>
       </c>
       <c r="O15">
-        <v>1.94</v>
+        <v>2.09</v>
       </c>
       <c r="P15">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="Q15">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="R15">
         <v>1.67</v>
@@ -2190,57 +2190,57 @@
         <v>2.1</v>
       </c>
       <c r="T15">
-        <v>1.23</v>
+        <v>1.17</v>
       </c>
       <c r="U15">
-        <v>1.26</v>
+        <v>1.22</v>
       </c>
       <c r="V15">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="W15">
-        <v>1</v>
+        <v>2.6</v>
       </c>
       <c r="X15">
-        <v>2.29</v>
+        <v>1.2</v>
       </c>
       <c r="Y15">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="Z15">
-        <v>1.19</v>
+        <v>1.6</v>
       </c>
       <c r="AA15">
-        <v>1.19</v>
+        <v>3.07</v>
       </c>
       <c r="AB15">
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="AC15">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AD15">
-        <v>0</v>
+        <v>2.95</v>
       </c>
       <c r="AE15">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="AF15">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="AG15">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="AH15">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="AI15">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:35">
       <c r="A16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B16" s="2">
         <v>45167</v>
@@ -2249,7 +2249,7 @@
         <v>46</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E16" t="s">
         <v>62</v>
@@ -2258,67 +2258,67 @@
         <v>80</v>
       </c>
       <c r="G16">
-        <v>2.27</v>
+        <v>2.5</v>
       </c>
       <c r="H16">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="I16">
-        <v>2.73</v>
+        <v>2.4</v>
       </c>
       <c r="J16">
-        <v>1.01</v>
+        <v>1</v>
       </c>
       <c r="K16">
-        <v>9.4</v>
+        <v>10.5</v>
       </c>
       <c r="L16">
-        <v>1.26</v>
+        <v>1.2</v>
       </c>
       <c r="M16">
-        <v>3.4</v>
+        <v>3.84</v>
       </c>
       <c r="N16">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="O16">
-        <v>1.72</v>
+        <v>2.1</v>
       </c>
       <c r="P16">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="Q16">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="R16">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="S16">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="T16">
-        <v>1.42</v>
+        <v>1.53</v>
       </c>
       <c r="U16">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="V16">
-        <v>1.57</v>
+        <v>1.43</v>
       </c>
       <c r="W16">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="X16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Y16">
-        <v>1.32</v>
+        <v>0.66</v>
       </c>
       <c r="Z16">
-        <v>2.48</v>
+        <v>1.52</v>
       </c>
       <c r="AA16">
-        <v>3.8</v>
+        <v>2.18</v>
       </c>
       <c r="AB16">
         <v>0</v>
@@ -2365,37 +2365,37 @@
         <v>81</v>
       </c>
       <c r="G17">
-        <v>1.66</v>
+        <v>1.82</v>
       </c>
       <c r="H17">
-        <v>4.15</v>
+        <v>4</v>
       </c>
       <c r="I17">
-        <v>4.76</v>
+        <v>3.95</v>
       </c>
       <c r="J17">
-        <v>1.04</v>
+        <v>1.01</v>
       </c>
       <c r="K17">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="L17">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="M17">
-        <v>4.2</v>
+        <v>3.94</v>
       </c>
       <c r="N17">
-        <v>1.61</v>
+        <v>1.71</v>
       </c>
       <c r="O17">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="P17">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="Q17">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="R17">
         <v>1.67</v>
@@ -2404,57 +2404,57 @@
         <v>2.1</v>
       </c>
       <c r="T17">
-        <v>1.17</v>
+        <v>1.23</v>
       </c>
       <c r="U17">
-        <v>1.22</v>
+        <v>1.26</v>
       </c>
       <c r="V17">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="W17">
-        <v>2.6</v>
+        <v>1</v>
       </c>
       <c r="X17">
-        <v>1.2</v>
+        <v>2.29</v>
       </c>
       <c r="Y17">
-        <v>1.47</v>
+        <v>0</v>
       </c>
       <c r="Z17">
-        <v>1.6</v>
+        <v>1.19</v>
       </c>
       <c r="AA17">
-        <v>3.07</v>
+        <v>1.19</v>
       </c>
       <c r="AB17">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="AC17">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AD17">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="AE17">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="AF17">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="AG17">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="AH17">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="AI17">
-        <v>0</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="18" spans="1:35">
       <c r="A18" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B18" s="2">
         <v>45167</v>
@@ -2463,7 +2463,7 @@
         <v>46</v>
       </c>
       <c r="D18">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E18" t="s">
         <v>64</v>
@@ -2472,91 +2472,91 @@
         <v>82</v>
       </c>
       <c r="G18">
-        <v>2.69</v>
+        <v>2.43</v>
       </c>
       <c r="H18">
-        <v>3.58</v>
+        <v>3.37</v>
       </c>
       <c r="I18">
-        <v>2.36</v>
+        <v>2.94</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>9.4</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="N18">
-        <v>1.62</v>
+        <v>1.85</v>
       </c>
       <c r="O18">
-        <v>2.16</v>
+        <v>1.85</v>
       </c>
       <c r="P18">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="Q18">
+        <v>2.75</v>
+      </c>
+      <c r="R18">
+        <v>1.73</v>
+      </c>
+      <c r="S18">
+        <v>2</v>
+      </c>
+      <c r="T18">
+        <v>1.42</v>
+      </c>
+      <c r="U18">
+        <v>1.3</v>
+      </c>
+      <c r="V18">
+        <v>1.57</v>
+      </c>
+      <c r="W18">
+        <v>1.4</v>
+      </c>
+      <c r="X18">
         <v>3</v>
       </c>
-      <c r="R18">
-        <v>1.67</v>
-      </c>
-      <c r="S18">
-        <v>2.1</v>
-      </c>
-      <c r="T18">
-        <v>0</v>
-      </c>
-      <c r="U18">
-        <v>0</v>
-      </c>
-      <c r="V18">
-        <v>0</v>
-      </c>
-      <c r="W18">
-        <v>0</v>
-      </c>
-      <c r="X18">
-        <v>1</v>
-      </c>
       <c r="Y18">
-        <v>0.66</v>
+        <v>1.32</v>
       </c>
       <c r="Z18">
-        <v>1.52</v>
+        <v>2.48</v>
       </c>
       <c r="AA18">
-        <v>2.18</v>
+        <v>3.8</v>
       </c>
       <c r="AB18">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="AC18">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AD18">
-        <v>0</v>
+        <v>2.35</v>
       </c>
       <c r="AE18">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="AF18">
-        <v>0</v>
+        <v>1.72</v>
       </c>
       <c r="AG18">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="AH18">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="AI18">
-        <v>0</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="19" spans="1:35">
@@ -2579,13 +2579,13 @@
         <v>83</v>
       </c>
       <c r="G19">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="H19">
-        <v>4.86</v>
+        <v>5.8</v>
       </c>
       <c r="I19">
-        <v>9.220000000000001</v>
+        <v>11.5</v>
       </c>
       <c r="J19">
         <v>1.04</v>
@@ -2600,10 +2600,10 @@
         <v>3.75</v>
       </c>
       <c r="N19">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="O19">
-        <v>1.97</v>
+        <v>2.04</v>
       </c>
       <c r="P19">
         <v>1.3</v>
@@ -2642,28 +2642,28 @@
         <v>3.1</v>
       </c>
       <c r="AB19">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="AC19">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AD19">
-        <v>0</v>
+        <v>6.1</v>
       </c>
       <c r="AE19">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="AF19">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AG19">
-        <v>0</v>
+        <v>1.86</v>
       </c>
       <c r="AH19">
-        <v>0</v>
+        <v>2.33</v>
       </c>
       <c r="AI19">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia/2023-08-29_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-08-29_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -184,18 +184,18 @@
     <t>Reggiana</t>
   </si>
   <si>
+    <t>Barry Town United</t>
+  </si>
+  <si>
+    <t>Caernarfon Town</t>
+  </si>
+  <si>
     <t>Penybont</t>
   </si>
   <si>
     <t>Connah's Quay</t>
   </si>
   <si>
-    <t>Barry Town United</t>
-  </si>
-  <si>
-    <t>Caernarfon Town</t>
-  </si>
-  <si>
     <t>Colwyn Bay</t>
   </si>
   <si>
@@ -238,16 +238,16 @@
     <t>Palermo</t>
   </si>
   <si>
+    <t>Haverfordwest County</t>
+  </si>
+  <si>
+    <t>Bala Town</t>
+  </si>
+  <si>
     <t>Cardiff MU</t>
   </si>
   <si>
     <t>Newtown</t>
-  </si>
-  <si>
-    <t>Haverfordwest County</t>
-  </si>
-  <si>
-    <t>Bala Town</t>
   </si>
   <si>
     <t>The New Saints</t>
@@ -760,13 +760,13 @@
         <v>66</v>
       </c>
       <c r="G2">
-        <v>2.38</v>
+        <v>2.41</v>
       </c>
       <c r="H2">
         <v>3.3</v>
       </c>
       <c r="I2">
-        <v>2.53</v>
+        <v>2.65</v>
       </c>
       <c r="J2">
         <v>1.03</v>
@@ -781,10 +781,10 @@
         <v>3.04</v>
       </c>
       <c r="N2">
-        <v>2.01</v>
+        <v>1.98</v>
       </c>
       <c r="O2">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="P2">
         <v>1.42</v>
@@ -808,10 +808,10 @@
         <v>1.4</v>
       </c>
       <c r="W2">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="X2">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="Y2">
         <v>1.32</v>
@@ -867,13 +867,13 @@
         <v>67</v>
       </c>
       <c r="G3">
-        <v>3</v>
+        <v>3.15</v>
       </c>
       <c r="H3">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="I3">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="J3">
         <v>1.03</v>
@@ -888,10 +888,10 @@
         <v>3.08</v>
       </c>
       <c r="N3">
-        <v>2.01</v>
+        <v>1.98</v>
       </c>
       <c r="O3">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="P3">
         <v>1.42</v>
@@ -915,10 +915,10 @@
         <v>1.35</v>
       </c>
       <c r="W3">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="X3">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="Y3">
         <v>1.43</v>
@@ -974,13 +974,13 @@
         <v>68</v>
       </c>
       <c r="G4">
-        <v>2.62</v>
+        <v>2.85</v>
       </c>
       <c r="H4">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="I4">
-        <v>2.27</v>
+        <v>2.24</v>
       </c>
       <c r="J4">
         <v>1.01</v>
@@ -995,10 +995,10 @@
         <v>3.48</v>
       </c>
       <c r="N4">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="O4">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="P4">
         <v>1.36</v>
@@ -1022,10 +1022,10 @@
         <v>1.3</v>
       </c>
       <c r="W4">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="X4">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="Y4">
         <v>1.53</v>
@@ -1081,13 +1081,13 @@
         <v>69</v>
       </c>
       <c r="G5">
-        <v>2.19</v>
+        <v>2.15</v>
       </c>
       <c r="H5">
-        <v>3.5</v>
+        <v>3.66</v>
       </c>
       <c r="I5">
-        <v>2.98</v>
+        <v>3.26</v>
       </c>
       <c r="J5">
         <v>1.04</v>
@@ -1188,13 +1188,13 @@
         <v>70</v>
       </c>
       <c r="G6">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="H6">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="I6">
-        <v>3.85</v>
+        <v>4.38</v>
       </c>
       <c r="J6">
         <v>1.08</v>
@@ -1209,10 +1209,10 @@
         <v>2.75</v>
       </c>
       <c r="N6">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="O6">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="P6">
         <v>1.44</v>
@@ -1251,28 +1251,28 @@
         <v>1.17</v>
       </c>
       <c r="AB6">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="AC6">
-        <v>0</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD6">
-        <v>0</v>
+        <v>2.99</v>
       </c>
       <c r="AE6">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="AF6">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="AG6">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="AH6">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="AI6">
-        <v>0</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="7" spans="1:35">
@@ -1295,13 +1295,13 @@
         <v>71</v>
       </c>
       <c r="G7">
-        <v>2.42</v>
+        <v>2.59</v>
       </c>
       <c r="H7">
-        <v>3.3</v>
+        <v>3.18</v>
       </c>
       <c r="I7">
-        <v>2.74</v>
+        <v>3.06</v>
       </c>
       <c r="J7">
         <v>1.1</v>
@@ -1316,10 +1316,10 @@
         <v>2.62</v>
       </c>
       <c r="N7">
-        <v>2.33</v>
+        <v>2.37</v>
       </c>
       <c r="O7">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="P7">
         <v>1.5</v>
@@ -1402,13 +1402,13 @@
         <v>72</v>
       </c>
       <c r="G8">
-        <v>2.38</v>
+        <v>2.57</v>
       </c>
       <c r="H8">
-        <v>3.3</v>
+        <v>3.05</v>
       </c>
       <c r="I8">
-        <v>2.82</v>
+        <v>3.22</v>
       </c>
       <c r="J8">
         <v>1.1</v>
@@ -1423,10 +1423,10 @@
         <v>2.62</v>
       </c>
       <c r="N8">
-        <v>2.26</v>
+        <v>2.3</v>
       </c>
       <c r="O8">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="P8">
         <v>1.5</v>
@@ -1509,13 +1509,13 @@
         <v>73</v>
       </c>
       <c r="G9">
-        <v>3.1</v>
+        <v>3.27</v>
       </c>
       <c r="H9">
-        <v>3.25</v>
+        <v>3.28</v>
       </c>
       <c r="I9">
-        <v>2.23</v>
+        <v>2.4</v>
       </c>
       <c r="J9">
         <v>1.1</v>
@@ -1530,10 +1530,10 @@
         <v>2.62</v>
       </c>
       <c r="N9">
-        <v>2.26</v>
+        <v>2.3</v>
       </c>
       <c r="O9">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="P9">
         <v>1.44</v>
@@ -1572,28 +1572,28 @@
         <v>1.45</v>
       </c>
       <c r="AB9">
-        <v>0</v>
+        <v>2.11</v>
       </c>
       <c r="AC9">
-        <v>0</v>
+        <v>7.3</v>
       </c>
       <c r="AD9">
-        <v>0</v>
+        <v>2.07</v>
       </c>
       <c r="AE9">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="AF9">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="AG9">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="AH9">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="AI9">
-        <v>0</v>
+        <v>3.28</v>
       </c>
     </row>
     <row r="10" spans="1:35">
@@ -1616,31 +1616,31 @@
         <v>74</v>
       </c>
       <c r="G10">
-        <v>1.8</v>
+        <v>2.64</v>
       </c>
       <c r="H10">
         <v>3.4</v>
       </c>
       <c r="I10">
-        <v>3.9</v>
+        <v>2.56</v>
       </c>
       <c r="J10">
-        <v>1.05</v>
+        <v>1.01</v>
       </c>
       <c r="K10">
-        <v>10.75</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="L10">
-        <v>1.31</v>
+        <v>1.25</v>
       </c>
       <c r="M10">
-        <v>3.17</v>
+        <v>3.6</v>
       </c>
       <c r="N10">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="O10">
-        <v>1.75</v>
+        <v>1.92</v>
       </c>
       <c r="P10">
         <v>1.4</v>
@@ -1649,58 +1649,58 @@
         <v>2.75</v>
       </c>
       <c r="R10">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="S10">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="T10">
-        <v>1.24</v>
+        <v>1.4</v>
       </c>
       <c r="U10">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="V10">
-        <v>1.86</v>
+        <v>1.52</v>
       </c>
       <c r="W10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="X10">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Y10">
-        <v>1.12</v>
+        <v>2.03</v>
       </c>
       <c r="Z10">
-        <v>1.07</v>
+        <v>0.91</v>
       </c>
       <c r="AA10">
+        <v>2.94</v>
+      </c>
+      <c r="AB10">
+        <v>1.81</v>
+      </c>
+      <c r="AC10">
+        <v>8.6</v>
+      </c>
+      <c r="AD10">
+        <v>2.23</v>
+      </c>
+      <c r="AE10">
+        <v>0</v>
+      </c>
+      <c r="AF10">
+        <v>1.41</v>
+      </c>
+      <c r="AG10">
+        <v>1.72</v>
+      </c>
+      <c r="AH10">
         <v>2.19</v>
       </c>
-      <c r="AB10">
-        <v>0</v>
-      </c>
-      <c r="AC10">
-        <v>0</v>
-      </c>
-      <c r="AD10">
-        <v>0</v>
-      </c>
-      <c r="AE10">
-        <v>0</v>
-      </c>
-      <c r="AF10">
-        <v>0</v>
-      </c>
-      <c r="AG10">
-        <v>0</v>
-      </c>
-      <c r="AH10">
-        <v>0</v>
-      </c>
       <c r="AI10">
-        <v>0</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="11" spans="1:35">
@@ -1723,76 +1723,76 @@
         <v>75</v>
       </c>
       <c r="G11">
-        <v>1.6</v>
+        <v>3.74</v>
       </c>
       <c r="H11">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="I11">
-        <v>4.6</v>
+        <v>1.87</v>
       </c>
       <c r="J11">
         <v>1.03</v>
       </c>
       <c r="K11">
-        <v>15.5</v>
+        <v>12.5</v>
       </c>
       <c r="L11">
-        <v>1.21</v>
+        <v>1.18</v>
       </c>
       <c r="M11">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="N11">
-        <v>1.68</v>
+        <v>1.57</v>
       </c>
       <c r="O11">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="P11">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="Q11">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="R11">
-        <v>1.73</v>
+        <v>1.57</v>
       </c>
       <c r="S11">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="T11">
-        <v>1.15</v>
+        <v>1.87</v>
       </c>
       <c r="U11">
-        <v>1.22</v>
+        <v>1.24</v>
       </c>
       <c r="V11">
-        <v>2.2</v>
+        <v>1.26</v>
       </c>
       <c r="W11">
         <v>3</v>
       </c>
       <c r="X11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y11">
-        <v>1.74</v>
+        <v>1.38</v>
       </c>
       <c r="Z11">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AA11">
-        <v>3.41</v>
+        <v>2.98</v>
       </c>
       <c r="AB11">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="AC11">
-        <v>0</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="AD11">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="AE11">
         <v>0</v>
@@ -1801,13 +1801,13 @@
         <v>0</v>
       </c>
       <c r="AG11">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="AH11">
-        <v>0</v>
+        <v>1.92</v>
       </c>
       <c r="AI11">
-        <v>0</v>
+        <v>2.48</v>
       </c>
     </row>
     <row r="12" spans="1:35">
@@ -1830,31 +1830,31 @@
         <v>76</v>
       </c>
       <c r="G12">
-        <v>2.38</v>
+        <v>1.87</v>
       </c>
       <c r="H12">
-        <v>3.3</v>
+        <v>3.49</v>
       </c>
       <c r="I12">
-        <v>2.63</v>
+        <v>4.12</v>
       </c>
       <c r="J12">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="K12">
-        <v>9.699999999999999</v>
+        <v>10.75</v>
       </c>
       <c r="L12">
-        <v>1.25</v>
+        <v>1.31</v>
       </c>
       <c r="M12">
-        <v>3.6</v>
+        <v>3.17</v>
       </c>
       <c r="N12">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="O12">
-        <v>1.9</v>
+        <v>1.83</v>
       </c>
       <c r="P12">
         <v>1.4</v>
@@ -1863,52 +1863,52 @@
         <v>2.75</v>
       </c>
       <c r="R12">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="S12">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="T12">
-        <v>1.4</v>
+        <v>1.24</v>
       </c>
       <c r="U12">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="V12">
-        <v>1.52</v>
+        <v>1.86</v>
       </c>
       <c r="W12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X12">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Y12">
-        <v>2.03</v>
+        <v>1.12</v>
       </c>
       <c r="Z12">
-        <v>0.91</v>
+        <v>1.07</v>
       </c>
       <c r="AA12">
-        <v>2.94</v>
+        <v>2.19</v>
       </c>
       <c r="AB12">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AC12">
-        <v>0</v>
+        <v>8.1</v>
       </c>
       <c r="AD12">
-        <v>0</v>
+        <v>3.05</v>
       </c>
       <c r="AE12">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="AF12">
-        <v>0</v>
+        <v>2.14</v>
       </c>
       <c r="AG12">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="AH12">
         <v>0</v>
@@ -1937,76 +1937,76 @@
         <v>77</v>
       </c>
       <c r="G13">
-        <v>3.3</v>
+        <v>1.48</v>
       </c>
       <c r="H13">
-        <v>3.6</v>
+        <v>4.33</v>
       </c>
       <c r="I13">
-        <v>1.9</v>
+        <v>6.4</v>
       </c>
       <c r="J13">
         <v>1.03</v>
       </c>
       <c r="K13">
-        <v>12.5</v>
+        <v>15.5</v>
       </c>
       <c r="L13">
-        <v>1.18</v>
+        <v>1.21</v>
       </c>
       <c r="M13">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="N13">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="O13">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="P13">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="Q13">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="R13">
-        <v>1.57</v>
+        <v>1.73</v>
       </c>
       <c r="S13">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="T13">
-        <v>1.87</v>
+        <v>1.15</v>
       </c>
       <c r="U13">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="V13">
-        <v>1.26</v>
+        <v>2.2</v>
       </c>
       <c r="W13">
         <v>3</v>
       </c>
       <c r="X13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y13">
-        <v>1.38</v>
+        <v>1.74</v>
       </c>
       <c r="Z13">
-        <v>1.6</v>
+        <v>1.67</v>
       </c>
       <c r="AA13">
-        <v>2.98</v>
+        <v>3.41</v>
       </c>
       <c r="AB13">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="AC13">
-        <v>0</v>
+        <v>10.25</v>
       </c>
       <c r="AD13">
-        <v>0</v>
+        <v>3.8</v>
       </c>
       <c r="AE13">
         <v>0</v>
@@ -2015,13 +2015,13 @@
         <v>0</v>
       </c>
       <c r="AG13">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="AH13">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="AI13">
-        <v>0</v>
+        <v>2.54</v>
       </c>
     </row>
     <row r="14" spans="1:35">
@@ -2107,28 +2107,28 @@
         <v>3.97</v>
       </c>
       <c r="AB14">
-        <v>0</v>
+        <v>11.75</v>
       </c>
       <c r="AC14">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="AD14">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AE14">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="AF14">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="AG14">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="AH14">
         <v>1.88</v>
       </c>
       <c r="AI14">
-        <v>0</v>
+        <v>1.97</v>
       </c>
     </row>
     <row r="15" spans="1:35">
@@ -2151,13 +2151,13 @@
         <v>79</v>
       </c>
       <c r="G15">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="H15">
-        <v>4.1</v>
+        <v>4.34</v>
       </c>
       <c r="I15">
-        <v>4.9</v>
+        <v>5.67</v>
       </c>
       <c r="J15">
         <v>1.04</v>
@@ -2172,10 +2172,10 @@
         <v>4.2</v>
       </c>
       <c r="N15">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="O15">
-        <v>2.09</v>
+        <v>2.1</v>
       </c>
       <c r="P15">
         <v>1.3</v>
@@ -2258,13 +2258,13 @@
         <v>80</v>
       </c>
       <c r="G16">
-        <v>2.5</v>
+        <v>2.81</v>
       </c>
       <c r="H16">
-        <v>3.5</v>
+        <v>3.13</v>
       </c>
       <c r="I16">
-        <v>2.4</v>
+        <v>2.57</v>
       </c>
       <c r="J16">
         <v>1</v>
@@ -2279,10 +2279,10 @@
         <v>3.84</v>
       </c>
       <c r="N16">
-        <v>1.7</v>
+        <v>1.87</v>
       </c>
       <c r="O16">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="P16">
         <v>1.36</v>
@@ -2365,13 +2365,13 @@
         <v>81</v>
       </c>
       <c r="G17">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="H17">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="I17">
-        <v>3.95</v>
+        <v>4.34</v>
       </c>
       <c r="J17">
         <v>1.01</v>
@@ -2386,10 +2386,10 @@
         <v>3.94</v>
       </c>
       <c r="N17">
-        <v>1.71</v>
+        <v>1.75</v>
       </c>
       <c r="O17">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="P17">
         <v>1.33</v>
@@ -2472,13 +2472,13 @@
         <v>82</v>
       </c>
       <c r="G18">
-        <v>2.43</v>
+        <v>2.63</v>
       </c>
       <c r="H18">
-        <v>3.37</v>
+        <v>3.49</v>
       </c>
       <c r="I18">
-        <v>2.94</v>
+        <v>2.77</v>
       </c>
       <c r="J18">
         <v>1.01</v>
@@ -2493,10 +2493,10 @@
         <v>3.4</v>
       </c>
       <c r="N18">
-        <v>1.85</v>
+        <v>1.98</v>
       </c>
       <c r="O18">
-        <v>1.85</v>
+        <v>1.91</v>
       </c>
       <c r="P18">
         <v>1.4</v>
@@ -2579,13 +2579,13 @@
         <v>83</v>
       </c>
       <c r="G19">
-        <v>1.19</v>
+        <v>1.25</v>
       </c>
       <c r="H19">
-        <v>5.8</v>
+        <v>6.07</v>
       </c>
       <c r="I19">
-        <v>11.5</v>
+        <v>12.34</v>
       </c>
       <c r="J19">
         <v>1.04</v>
@@ -2600,10 +2600,10 @@
         <v>3.75</v>
       </c>
       <c r="N19">
-        <v>1.69</v>
+        <v>1.85</v>
       </c>
       <c r="O19">
-        <v>2.04</v>
+        <v>1.96</v>
       </c>
       <c r="P19">
         <v>1.3</v>
